--- a/Simulasi/Simulasi Hitung Top Up Using Coupon.xlsx
+++ b/Simulasi/Simulasi Hitung Top Up Using Coupon.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KIP'\Katalon Test\EENDIGOProject\Simulasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33DA809-B05F-4D1F-A699-23C57797DD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{A33DA809-B05F-4D1F-A699-23C57797DD17}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="3" firstSheet="1" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="TopUp Disc Percent" sheetId="3" r:id="rId1"/>
-    <sheet name="TopUp Disc Nominal" sheetId="5" r:id="rId2"/>
-    <sheet name="TopUp Cashback Percent" sheetId="6" r:id="rId3"/>
-    <sheet name="TopUp Cashback Nominal" sheetId="7" r:id="rId4"/>
+    <sheet name="TopUp Disc Percent" r:id="rId1" sheetId="3"/>
+    <sheet name="TopUp Disc Nominal" r:id="rId2" sheetId="5"/>
+    <sheet name="TopUp Cashback Percent" r:id="rId3" sheetId="6"/>
+    <sheet name="TopUp Cashback Nominal" r:id="rId4" sheetId="7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>Service</t>
   </si>
@@ -109,12 +109,16 @@
   </si>
   <si>
     <t>Total Price Beli</t>
+  </si>
+  <si>
+    <t>OCR KK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -163,27 +167,27 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="10" xfId="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="5" name="Percent" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -200,10 +204,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -238,7 +242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -273,7 +277,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -367,21 +371,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -398,7 +402,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -450,15 +454,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
@@ -466,16 +470,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.54296875" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" width="10.7265625" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.453125" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7265625" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.1796875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="11.0" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.26953125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="15" r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -505,8 +509,8 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
+      <c r="A2" t="s">
+        <v>27</v>
       </c>
       <c r="B2" s="1">
         <v>501</v>
@@ -577,277 +581,277 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D15" si="0">B4*C4</f>
+        <f ref="D4:D15" si="0" t="shared">B4*C4</f>
         <v>0</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4">
-        <f t="shared" ref="F4:F15" si="1">D4*E4/100</f>
+        <f ref="F4:F15" si="1" t="shared">D4*E4/100</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G15" si="2">D4-F4</f>
+        <f ref="G4:G15" si="2" t="shared">D4-F4</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H15" si="3">ROUNDDOWN(G4*11%, 0)</f>
+        <f ref="H4:H15" si="3" t="shared">ROUNDDOWN(G4*11%, 0)</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I15" si="4">ROUNDDOWN(G4+H4,0)</f>
+        <f ref="I4:I15" si="4" t="shared">ROUNDDOWN(G4+H4,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="I15">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -894,14 +898,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="200" orientation="portrait" r:id="rId1" verticalDpi="200"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
@@ -909,11 +913,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7265625" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.453125" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" width="10.7265625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="15" r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -962,73 +966,73 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D15" si="0">B4*C4</f>
+        <f ref="D4:D15" si="0" t="shared">B4*C4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -1083,13 +1087,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
@@ -1097,16 +1101,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="19.54296875" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" width="10.7265625" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.453125" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.7265625" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.81640625" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="21.0" collapsed="false"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.26953125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="15" r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1208,276 +1212,276 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D15" si="0">B4*C4</f>
+        <f ref="D4:D15" si="0" t="shared">B4*C4</f>
         <v>0</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4">
-        <f t="shared" ref="F4:F15" si="1">C4*E4/100</f>
+        <f ref="F4:F15" si="1" t="shared">C4*E4/100</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G15" si="2">C4+F4</f>
+        <f ref="G4:G15" si="2" t="shared">C4+F4</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H15" si="3">ROUNDDOWN(D4*E4,0)</f>
+        <f ref="H4:H15" si="3" t="shared">ROUNDDOWN(D4*E4,0)</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I15" si="4">ROUNDDOWN(D4+H4,0)</f>
+        <f ref="I4:I15" si="4" t="shared">ROUNDDOWN(D4+H4,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="I14">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f si="2" t="shared"/>
         <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" si="3"/>
+        <f si="3" t="shared"/>
         <v>0</v>
       </c>
       <c r="I15">
-        <f t="shared" si="4"/>
+        <f si="4" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -1524,13 +1528,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
@@ -1538,15 +1542,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7265625" customWidth="1"/>
-    <col min="5" max="5" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="28.453125" collapsed="false"/>
+    <col min="2" max="3" customWidth="true" width="10.7265625" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.26953125" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.26953125" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="19.7265625" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.81640625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row customHeight="1" ht="15" r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1681,6 +1685,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Simulasi/Simulasi Hitung Top Up Using Coupon.xlsx
+++ b/Simulasi/Simulasi Hitung Top Up Using Coupon.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KIP'\Katalon Test\EENDIGOProject\Simulasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{A33DA809-B05F-4D1F-A699-23C57797DD17}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B45D0B-F9F7-416A-BCE3-AA5A41940910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="3" firstSheet="1" windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TopUp Disc Percent" r:id="rId1" sheetId="3"/>
-    <sheet name="TopUp Disc Nominal" r:id="rId2" sheetId="5"/>
-    <sheet name="TopUp Cashback Percent" r:id="rId3" sheetId="6"/>
-    <sheet name="TopUp Cashback Nominal" r:id="rId4" sheetId="7"/>
+    <sheet name="TopUp Disc Percent" sheetId="3" r:id="rId1"/>
+    <sheet name="TopUp Disc Nominal" sheetId="5" r:id="rId2"/>
+    <sheet name="TopUp Cashback Percent" sheetId="6" r:id="rId3"/>
+    <sheet name="TopUp Cashback Nominal" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="28">
   <si>
     <t>Service</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Cashback Percentage</t>
   </si>
   <si>
-    <t>Grand Total Cachback</t>
-  </si>
-  <si>
     <t>Propotional Percentage</t>
   </si>
   <si>
@@ -111,14 +108,16 @@
     <t>Total Price Beli</t>
   </si>
   <si>
-    <t>OCR KK</t>
+    <t/>
+  </si>
+  <si>
+    <t>Grand Total Cashback</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,27 +166,26 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="10" xfId="1"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="1" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="5" name="Percent" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -204,10 +202,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -242,7 +240,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -277,7 +275,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -371,21 +369,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -402,7 +400,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -454,32 +452,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.54296875" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" width="10.7265625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.453125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.7265625" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.1796875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="11.0" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.26953125" collapsed="false"/>
+    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="10.7265625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -510,349 +508,373 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="1">
-        <v>501</v>
-      </c>
-      <c r="C2" s="1">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <f>B2*C2</f>
-        <v>50100</v>
-      </c>
-      <c r="E2" s="7">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <f>D2*E2/100</f>
-        <v>10020</v>
-      </c>
-      <c r="G2">
-        <f>D2-F2</f>
-        <v>40080</v>
-      </c>
-      <c r="H2">
-        <f>ROUNDDOWN(G2*11%, 0)</f>
-        <v>4408</v>
-      </c>
-      <c r="I2">
-        <f>ROUNDDOWN(G2+H2,0)</f>
-        <v>44488</v>
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="str">
+        <f>IFERROR(B2*C2,"")</f>
+        <v/>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="str">
+        <f xml:space="preserve"> IFERROR(ROUNDDOWN(D2*E2/100,0),"")</f>
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <f>IFERROR(D2-F2,"")</f>
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <f>IFERROR(ROUNDDOWN(G2*11%, 0),"")</f>
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <f>IFERROR(ROUNDDOWN(G2+H2,0),"")</f>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <v>720</v>
-      </c>
-      <c r="C3" s="1">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <f>B3*C3</f>
-        <v>72000</v>
-      </c>
-      <c r="E3" s="7">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <f>D3*E3/100</f>
-        <v>14400</v>
-      </c>
-      <c r="G3">
-        <f>D3-F3</f>
-        <v>57600</v>
-      </c>
-      <c r="H3">
-        <f>ROUNDDOWN(G3*11%, 0)</f>
-        <v>6336</v>
-      </c>
-      <c r="I3">
-        <f>ROUNDDOWN(G3+H3,0)</f>
-        <v>63936</v>
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D15" si="0">IFERROR(B3*C3,"")</f>
+        <v/>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F15" si="1" xml:space="preserve"> IFERROR(ROUNDDOWN(D3*E3/100,0),"")</f>
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G15" si="2">IFERROR(D3-F3,"")</f>
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H15" si="3">IFERROR(ROUNDDOWN(G3*11%, 0),"")</f>
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <f>IFERROR(ROUNDDOWN(G3+H3,0),"")</f>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <f ref="D4:D15" si="0" t="shared">B4*C4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4">
-        <f ref="F4:F15" si="1" t="shared">D4*E4/100</f>
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f ref="G4:G15" si="2" t="shared">D4-F4</f>
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f ref="H4:H15" si="3" t="shared">ROUNDDOWN(G4*11%, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f ref="I4:I15" si="4" t="shared">ROUNDDOWN(G4+H4,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I15" si="4">IFERROR(ROUNDDOWN(G4+H4,0),"")</f>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D5">
-        <f si="0" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5">
-        <f si="1" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f si="2" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f si="3" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f si="4" t="shared"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D6">
-        <f si="0" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6">
-        <f si="1" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f si="2" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f si="3" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f si="4" t="shared"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D7">
-        <f si="0" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7">
-        <f si="1" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f si="2" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f si="3" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f si="4" t="shared"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D8">
-        <f si="0" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8">
-        <f si="1" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f si="2" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f si="3" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f si="4" t="shared"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D9">
-        <f si="0" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9">
-        <f si="1" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f si="2" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f si="3" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f si="4" t="shared"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D10">
-        <f si="0" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10">
-        <f si="1" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f si="2" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f si="3" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f si="4" t="shared"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D11">
-        <f si="0" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11">
-        <f si="1" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f si="2" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f si="3" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f si="4" t="shared"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D12">
-        <f si="0" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12">
-        <f si="1" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f si="2" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f si="3" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f si="4" t="shared"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D13">
-        <f si="0" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13">
-        <f si="1" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f si="2" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f si="3" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f si="4" t="shared"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D14">
-        <f si="0" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14">
-        <f si="1" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f si="2" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f si="3" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f si="4" t="shared"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D15">
-        <f si="0" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15">
-        <f si="1" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f si="2" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f si="3" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f si="4" t="shared"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -861,7 +883,7 @@
       </c>
       <c r="B17">
         <f>SUM(D$2:D$15)</f>
-        <v>122100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -870,7 +892,7 @@
       </c>
       <c r="B18">
         <f>SUM(F$2:F$15)</f>
-        <v>24420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -879,7 +901,7 @@
       </c>
       <c r="B19">
         <f>SUM(H$2:H$15)</f>
-        <v>10744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -888,7 +910,7 @@
       </c>
       <c r="B20">
         <f>SUM(I$2:I$15)</f>
-        <v>108424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -898,26 +920,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="200" orientation="portrait" r:id="rId1" verticalDpi="200"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E2:E3" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.453125" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" width="10.7265625" collapsed="false"/>
+    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="10.7265625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -942,7 +967,7 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <f>B2*C2</f>
+        <f>IFERROR(B2*C2,"")</f>
         <v>50100</v>
       </c>
     </row>
@@ -957,7 +982,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <f>B3*C3</f>
+        <f t="shared" ref="D3:D15" si="0">IFERROR(B3*C3,"")</f>
         <v>7200</v>
       </c>
     </row>
@@ -966,73 +991,73 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <f ref="D4:D15" si="0" t="shared">B4*C4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D5">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D6">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D7">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D8">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D9">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D10">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D11">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D12">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D13">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D14">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D15">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1049,7 +1074,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <f>SUM(D$2:D$15)</f>
+        <f>IFERROR(SUM(D$2:D$15),"")</f>
         <v>57300</v>
       </c>
     </row>
@@ -1067,7 +1092,7 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <f>ROUNDDOWN(B19*11%,0)</f>
+        <f>IFERROR(ROUNDDOWN(B19*11%,0),"")</f>
         <v>5973</v>
       </c>
     </row>
@@ -1076,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <f>ROUNDDOWN(B19+B20,0)</f>
+        <f>IFERROR(ROUNDDOWN(B19+B20,0),"")</f>
         <v>60273</v>
       </c>
     </row>
@@ -1087,30 +1112,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.54296875" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" width="10.7265625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.453125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.7265625" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.81640625" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="21.0" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.26953125" collapsed="false"/>
+    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="10.7265625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1127,361 +1152,356 @@
         <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>501</v>
-      </c>
-      <c r="C2" s="1">
-        <v>100</v>
-      </c>
       <c r="D2">
-        <f>B2*C2</f>
-        <v>50100</v>
-      </c>
-      <c r="E2" s="7">
-        <v>10</v>
+        <f>IFERROR(B2*C2,"")</f>
+        <v>0</v>
       </c>
       <c r="F2">
-        <f>C2*E2/100</f>
-        <v>10</v>
+        <f>IFERROR(ROUNDDOWN(D2*E2/100,0), "")</f>
+        <v>0</v>
       </c>
       <c r="G2">
-        <f>C2+F2</f>
-        <v>110</v>
+        <f>IFERROR(C2+F2,"")</f>
+        <v>0</v>
       </c>
       <c r="H2">
-        <f>ROUNDDOWN(D2*E2,0)</f>
-        <v>501000</v>
+        <f>IFERROR(ROUNDDOWN(D2*E2,0),"")</f>
+        <v>0</v>
       </c>
       <c r="I2">
-        <f>ROUNDDOWN(D2+H2,0)</f>
-        <v>551100</v>
+        <f>IFERROR(ROUNDDOWN(D2+H2,0),"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <v>720</v>
-      </c>
-      <c r="C3" s="1">
-        <v>100</v>
-      </c>
       <c r="D3">
-        <f>B3*C3</f>
-        <v>72000</v>
-      </c>
-      <c r="E3" s="7">
-        <v>10</v>
+        <f t="shared" ref="D3:D15" si="0">IFERROR(B3*C3,"")</f>
+        <v>0</v>
       </c>
       <c r="F3">
-        <f>C3*E3/100</f>
-        <v>10</v>
+        <f>IFERROR(ROUNDDOWN(D3*E3/100,0), "")</f>
+        <v>0</v>
       </c>
       <c r="G3">
-        <f>C3+F3</f>
-        <v>110</v>
+        <f t="shared" ref="G3:G15" si="1">IFERROR(C3+F3,"")</f>
+        <v>0</v>
       </c>
       <c r="H3">
-        <f>ROUNDDOWN(D3*E3,0)</f>
-        <v>720000</v>
+        <f t="shared" ref="H3:H15" si="2">IFERROR(ROUNDDOWN(D3*E3,0),"")</f>
+        <v>0</v>
       </c>
       <c r="I3">
-        <f>ROUNDDOWN(D3+H3,0)</f>
-        <v>792000</v>
+        <f t="shared" ref="I3:I15" si="3">IFERROR(ROUNDDOWN(D3+H3,0),"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
       <c r="D4">
-        <f ref="D4:D15" si="0" t="shared">B4*C4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4">
-        <f ref="F4:F15" si="1" t="shared">C4*E4/100</f>
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f ref="G4:G15" si="2" t="shared">C4+F4</f>
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f ref="H4:H15" si="3" t="shared">ROUNDDOWN(D4*E4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f ref="I4:I15" si="4" t="shared">ROUNDDOWN(D4+H4,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="str">
+        <f>IFERROR(ROUNDDOWN(D4*E4/100,0), "")</f>
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D5">
-        <f si="0" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5">
-        <f si="1" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f si="2" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f si="3" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f si="4" t="shared"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" ref="F5:F15" si="4">IFERROR(ROUNDDOWN(D5*E5/100,0), "")</f>
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D6">
-        <f si="0" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6">
-        <f si="1" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f si="2" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f si="3" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f si="4" t="shared"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D7">
-        <f si="0" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7">
-        <f si="1" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f si="2" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f si="3" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f si="4" t="shared"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D8">
-        <f si="0" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8">
-        <f si="1" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f si="2" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f si="3" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f si="4" t="shared"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D9">
-        <f si="0" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9">
-        <f si="1" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f si="2" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f si="3" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f si="4" t="shared"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D10">
-        <f si="0" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10">
-        <f si="1" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f si="2" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f si="3" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f si="4" t="shared"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D11">
-        <f si="0" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11">
-        <f si="1" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f si="2" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f si="3" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f si="4" t="shared"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D12">
-        <f si="0" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12">
-        <f si="1" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f si="2" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f si="3" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f si="4" t="shared"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D13">
-        <f si="0" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13">
-        <f si="1" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f si="2" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f si="3" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f si="4" t="shared"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D14">
-        <f si="0" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14">
-        <f si="1" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f si="2" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f si="3" t="shared"/>
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <f si="4" t="shared"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D15">
-        <f si="0" t="shared"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15">
-        <f si="1" t="shared"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G15">
-        <f si="2" t="shared"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H15">
-        <f si="3" t="shared"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I15">
-        <f si="4" t="shared"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1491,16 +1511,16 @@
       </c>
       <c r="B17">
         <f>SUM(D$2:D$14)</f>
-        <v>122100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <f>SUM(F$2:F$15)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1509,7 +1529,7 @@
       </c>
       <c r="B19">
         <f>B17*11%</f>
-        <v>13431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1518,7 +1538,7 @@
       </c>
       <c r="B20">
         <f>B17+B19</f>
-        <v>135531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1528,29 +1548,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.453125" collapsed="false"/>
-    <col min="2" max="3" customWidth="true" width="10.7265625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.26953125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.26953125" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="19.7265625" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.81640625" collapsed="false"/>
+    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="10.7265625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.81640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15" r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1564,16 +1584,16 @@
         <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1587,23 +1607,23 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <f>B2*C2</f>
+        <f>IFERROR(B2*C2,"")</f>
         <v>50100</v>
       </c>
       <c r="E2" s="5">
-        <f>D2/SUM(D$2:D$15)</f>
+        <f>IFERROR(D2/SUM(D$2:D$15),"")</f>
         <v>0.58188153310104529</v>
       </c>
       <c r="F2" s="4">
-        <f>B17*E2</f>
+        <f>IFERROR($B$17*E2,"")</f>
         <v>2909.4076655052263</v>
       </c>
       <c r="G2" s="6">
-        <f>ROUNDDOWN(F2/B2,0)</f>
+        <f>IFERROR(ROUNDDOWN(F2/B2,0),"")</f>
         <v>5</v>
       </c>
       <c r="H2" s="6">
-        <f>C2+G2</f>
+        <f>IFERROR(C2+G2,"")</f>
         <v>105</v>
       </c>
     </row>
@@ -1618,29 +1638,291 @@
         <v>50</v>
       </c>
       <c r="D3">
-        <f>B3*C3</f>
+        <f t="shared" ref="D3:D15" si="0">IFERROR(B3*C3,"")</f>
         <v>36000</v>
       </c>
       <c r="E3" s="5">
-        <f>D3/SUM(D$2:D$15)</f>
+        <f t="shared" ref="E3:E15" si="1">IFERROR(D3/SUM(D$2:D$15),"")</f>
         <v>0.41811846689895471</v>
       </c>
       <c r="F3" s="4">
-        <f>B17*E3</f>
+        <f t="shared" ref="F3:F15" si="2">IFERROR($B$17*E3,"")</f>
         <v>2090.5923344947737</v>
       </c>
       <c r="G3" s="6">
-        <f>ROUNDDOWN(F3/B3,0)</f>
+        <f t="shared" ref="G3:G15" si="3">IFERROR(ROUNDDOWN(F3/B3,0),"")</f>
         <v>2</v>
       </c>
       <c r="H3" s="6">
-        <f>C3+G3</f>
+        <f t="shared" ref="H3:H15" si="4">IFERROR(C3+G3,"")</f>
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H4" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H5" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H6" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H7" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H8" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H9" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H10" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H11" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H12" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H13" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H14" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="H15" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -1685,6 +1967,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Simulasi/Simulasi Hitung Top Up Using Coupon.xlsx
+++ b/Simulasi/Simulasi Hitung Top Up Using Coupon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KIP'\Katalon Test\EENDIGOProject\Simulasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B45D0B-F9F7-416A-BCE3-AA5A41940910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C048BBD6-1F01-4BE1-BFB1-EC8277905B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TopUp Disc Percent" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="26">
   <si>
     <t>Service</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Total Cashback</t>
   </si>
   <si>
-    <t>OCR BPKB</t>
-  </si>
-  <si>
     <t>Jumlah</t>
   </si>
   <si>
@@ -51,12 +48,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>OCR NPWP</t>
-  </si>
-  <si>
-    <t>&lt;dst&gt;</t>
-  </si>
-  <si>
     <t>Sub Total</t>
   </si>
   <si>
@@ -112,6 +103,9 @@
   </si>
   <si>
     <t>Grand Total Cashback</t>
+  </si>
+  <si>
+    <t>3000</t>
   </si>
 </sst>
 </file>
@@ -463,7 +457,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -482,46 +476,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" t="str">
         <f>IFERROR(B2*C2,"")</f>
         <v/>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F2" t="str">
         <f xml:space="preserve"> IFERROR(ROUNDDOWN(D2*E2/100,0),"")</f>
@@ -542,20 +536,20 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D15" si="0">IFERROR(B3*C3,"")</f>
         <v/>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F15" si="1" xml:space="preserve"> IFERROR(ROUNDDOWN(D3*E3/100,0),"")</f>
@@ -576,14 +570,14 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
@@ -608,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
@@ -633,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
@@ -658,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
@@ -683,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
@@ -708,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
@@ -733,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
@@ -758,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
@@ -783,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
@@ -808,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
@@ -833,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
@@ -858,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
@@ -879,7 +873,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <f>SUM(D$2:D$15)</f>
@@ -888,7 +882,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B18">
         <f>SUM(F$2:F$15)</f>
@@ -897,7 +891,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <f>SUM(H$2:H$15)</f>
@@ -906,7 +900,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <f>SUM(I$2:I$15)</f>
@@ -916,7 +910,7 @@
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -932,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -947,48 +941,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>501</v>
-      </c>
-      <c r="C2" s="1">
-        <v>100</v>
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>500</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
       </c>
       <c r="D2">
         <f>IFERROR(B2*C2,"")</f>
-        <v>50100</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>501</v>
+      </c>
+      <c r="C3">
         <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <v>720</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D15" si="0">IFERROR(B3*C3,"")</f>
-        <v>7200</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
@@ -1063,52 +1057,52 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1">
-        <v>3000</v>
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <f>SUM($D$2:$D$15)</f>
+        <v>9507</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <f>IFERROR(SUM(D$2:D$15),"")</f>
-        <v>57300</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <f>B18-B17</f>
-        <v>54300</v>
+        <f>IFERROR(ROUNDDOWN(B21*11%,0),"")</f>
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <f>IFERROR(ROUNDDOWN(B19*11%,0),"")</f>
-        <v>5973</v>
+        <f>IFERROR(ROUNDDOWN(B19+B21,0),"")</f>
+        <v>5002</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <f>IFERROR(ROUNDDOWN(B19+B20,0),"")</f>
-        <v>60273</v>
+        <f>IFERROR(ROUNDDOWN(B17-B18,0),"")</f>
+        <v>4507</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1120,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1140,28 +1134,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1214,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F4" t="str">
         <f>IFERROR(ROUNDDOWN(D4*E4/100,0), "")</f>
@@ -1239,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ref="F5:F15" si="4">IFERROR(ROUNDDOWN(D5*E5/100,0), "")</f>
@@ -1264,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="4"/>
@@ -1289,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="4"/>
@@ -1314,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="4"/>
@@ -1339,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="4"/>
@@ -1364,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="4"/>
@@ -1389,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="4"/>
@@ -1414,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="4"/>
@@ -1439,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="4"/>
@@ -1464,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="4"/>
@@ -1507,7 +1501,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <f>SUM(D$2:D$14)</f>
@@ -1516,7 +1510,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <f>SUM(F$2:F$15)</f>
@@ -1525,16 +1519,16 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <f>B17*11%</f>
+        <f>IFERROR(B18-B17,"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <f>B17+B19</f>
@@ -1544,7 +1538,7 @@
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1557,7 +1551,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1575,104 +1569,104 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>501</v>
-      </c>
-      <c r="C2" s="1">
-        <v>100</v>
-      </c>
-      <c r="D2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="str">
         <f>IFERROR(B2*C2,"")</f>
-        <v>50100</v>
-      </c>
-      <c r="E2" s="5">
+        <v/>
+      </c>
+      <c r="E2" s="5" t="str">
         <f>IFERROR(D2/SUM(D$2:D$15),"")</f>
-        <v>0.58188153310104529</v>
-      </c>
-      <c r="F2" s="4">
-        <f>IFERROR($B$17*E2,"")</f>
-        <v>2909.4076655052263</v>
-      </c>
-      <c r="G2" s="6">
+        <v/>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f t="shared" ref="F2:F15" si="0">IFERROR($B$18*E2,"")</f>
+        <v/>
+      </c>
+      <c r="G2" s="6" t="str">
         <f>IFERROR(ROUNDDOWN(F2/B2,0),"")</f>
-        <v>5</v>
-      </c>
-      <c r="H2" s="6">
+        <v/>
+      </c>
+      <c r="H2" s="6" t="str">
         <f>IFERROR(C2+G2,"")</f>
-        <v>105</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1">
-        <v>720</v>
-      </c>
-      <c r="C3" s="1">
-        <v>50</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D15" si="0">IFERROR(B3*C3,"")</f>
-        <v>36000</v>
-      </c>
-      <c r="E3" s="5">
-        <f t="shared" ref="E3:E15" si="1">IFERROR(D3/SUM(D$2:D$15),"")</f>
-        <v>0.41811846689895471</v>
-      </c>
-      <c r="F3" s="4">
-        <f t="shared" ref="F3:F15" si="2">IFERROR($B$17*E3,"")</f>
-        <v>2090.5923344947737</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D15" si="1">IFERROR(B3*C3,"")</f>
+        <v/>
+      </c>
+      <c r="E3" s="5" t="str">
+        <f t="shared" ref="E3:E15" si="2">IFERROR(D3/SUM(D$2:D$15),"")</f>
+        <v/>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G3" s="6" t="str">
         <f t="shared" ref="G3:G15" si="3">IFERROR(ROUNDDOWN(F3/B3,0),"")</f>
-        <v>2</v>
-      </c>
-      <c r="H3" s="6">
+        <v/>
+      </c>
+      <c r="H3" s="6" t="str">
         <f t="shared" ref="H3:H15" si="4">IFERROR(C3+G3,"")</f>
-        <v>52</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="G4" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1685,16 +1679,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="G5" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1707,16 +1701,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="G6" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1729,16 +1723,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="G7" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1751,16 +1745,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="G8" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1773,16 +1767,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="G9" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1795,16 +1789,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="G10" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1817,16 +1811,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="G11" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1839,16 +1833,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="G12" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1861,16 +1855,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="G13" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1883,16 +1877,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="G14" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1905,16 +1899,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="G15" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1927,43 +1921,43 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="1">
-        <v>5000</v>
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <f>SUM(D$2:D$15)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <f>SUM(D$2:D$15)</f>
-        <v>86100</v>
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <f>B18*11%</f>
-        <v>9471</v>
+        <f>IFERROR(ROUNDDOWN(B17*11%,0),"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <f>B18+B19</f>
-        <v>95571</v>
+        <f>IFERROR(B17+B19,"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Simulasi/Simulasi Hitung Top Up Using Coupon.xlsx
+++ b/Simulasi/Simulasi Hitung Top Up Using Coupon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KIP'\Katalon Test\EENDIGOProject\Simulasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C048BBD6-1F01-4BE1-BFB1-EC8277905B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4575A851-679E-4FC0-B0E6-0E568350987E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TopUp Disc Percent" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="25">
   <si>
     <t>Service</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>Grand Total Cashback</t>
-  </si>
-  <si>
-    <t>3000</t>
   </si>
 </sst>
 </file>
@@ -457,7 +454,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -504,68 +501,68 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="str">
+      <c r="B2">
+        <v>720</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
         <f>IFERROR(B2*C2,"")</f>
-        <v/>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="str">
+        <v>7200</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
         <f xml:space="preserve"> IFERROR(ROUNDDOWN(D2*E2/100,0),"")</f>
-        <v/>
-      </c>
-      <c r="G2" t="str">
+        <v>1440</v>
+      </c>
+      <c r="G2">
         <f>IFERROR(D2-F2,"")</f>
-        <v/>
-      </c>
-      <c r="H2" t="str">
-        <f>IFERROR(ROUNDDOWN(G2*11%, 0),"")</f>
-        <v/>
-      </c>
-      <c r="I2" t="str">
+        <v>5760</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H15" si="0">IFERROR(ROUNDDOWN(G2*11%, 0),"")</f>
+        <v>633</v>
+      </c>
+      <c r="I2">
         <f>IFERROR(ROUNDDOWN(G2+H2,0),"")</f>
-        <v/>
+        <v>6393</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D15" si="0">IFERROR(B3*C3,"")</f>
-        <v/>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F15" si="1" xml:space="preserve"> IFERROR(ROUNDDOWN(D3*E3/100,0),"")</f>
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" ref="G3:G15" si="2">IFERROR(D3-F3,"")</f>
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H15" si="3">IFERROR(ROUNDDOWN(G3*11%, 0),"")</f>
-        <v/>
-      </c>
-      <c r="I3" t="str">
+      <c r="B3">
+        <v>500</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D15" si="1">IFERROR(B3*C3,"")</f>
+        <v>2500</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F15" si="2" xml:space="preserve"> IFERROR(ROUNDDOWN(D3*E3/100,0),"")</f>
+        <v>500</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G15" si="3">IFERROR(D3-F3,"")</f>
+        <v>2000</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="I3">
         <f>IFERROR(ROUNDDOWN(G3+H3,0),"")</f>
-        <v/>
+        <v>2220</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -573,22 +570,22 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I4" t="str">
@@ -598,22 +595,22 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I5" t="str">
@@ -623,22 +620,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I6" t="str">
@@ -648,22 +645,22 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I7" t="str">
@@ -673,22 +670,22 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I8" t="str">
@@ -698,22 +695,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I9" t="str">
@@ -723,22 +720,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I10" t="str">
@@ -748,22 +745,22 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I11" t="str">
@@ -773,22 +770,22 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I12" t="str">
@@ -798,22 +795,22 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I13" t="str">
@@ -823,22 +820,22 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I14" t="str">
@@ -848,22 +845,22 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I15" t="str">
@@ -877,7 +874,7 @@
       </c>
       <c r="B17">
         <f>SUM(D$2:D$15)</f>
-        <v>0</v>
+        <v>9700</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -886,7 +883,7 @@
       </c>
       <c r="B18">
         <f>SUM(F$2:F$15)</f>
-        <v>0</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -895,7 +892,7 @@
       </c>
       <c r="B19">
         <f>SUM(H$2:H$15)</f>
-        <v>0</v>
+        <v>853</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -904,7 +901,7 @@
       </c>
       <c r="B20">
         <f>SUM(I$2:I$15)</f>
-        <v>0</v>
+        <v>8613</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -916,9 +913,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="E2:E3" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -926,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -955,14 +949,14 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <v>720</v>
       </c>
       <c r="C2">
         <v>12</v>
       </c>
       <c r="D2">
         <f>IFERROR(B2*C2,"")</f>
-        <v>6000</v>
+        <v>8640</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -970,14 +964,14 @@
         <v>23</v>
       </c>
       <c r="B3">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D15" si="0">IFERROR(B3*C3,"")</f>
-        <v>3507</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1061,7 +1055,7 @@
       </c>
       <c r="B17">
         <f>SUM($D$2:$D$15)</f>
-        <v>9507</v>
+        <v>12140</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1078,7 +1072,7 @@
       </c>
       <c r="B19">
         <f>IFERROR(ROUNDDOWN(B21*11%,0),"")</f>
-        <v>495</v>
+        <v>785</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1087,7 +1081,7 @@
       </c>
       <c r="B20">
         <f>IFERROR(ROUNDDOWN(B19+B21,0),"")</f>
-        <v>5002</v>
+        <v>7925</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -1096,7 +1090,7 @@
       </c>
       <c r="B21">
         <f>IFERROR(ROUNDDOWN(B17-B18,0),"")</f>
-        <v>4507</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1114,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1159,47 +1153,71 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>720</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
       <c r="D2">
         <f>IFERROR(B2*C2,"")</f>
-        <v>0</v>
+        <v>7200</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
       </c>
       <c r="F2">
         <f>IFERROR(ROUNDDOWN(D2*E2/100,0), "")</f>
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="G2">
         <f>IFERROR(C2+F2,"")</f>
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="H2">
         <f>IFERROR(ROUNDDOWN(D2*E2,0),"")</f>
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="I2">
         <f>IFERROR(ROUNDDOWN(D2+H2,0),"")</f>
-        <v>0</v>
+        <v>79200</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>500</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
       <c r="D3">
         <f t="shared" ref="D3:D15" si="0">IFERROR(B3*C3,"")</f>
-        <v>0</v>
+        <v>2500</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
       </c>
       <c r="F3">
         <f>IFERROR(ROUNDDOWN(D3*E3/100,0), "")</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G15" si="1">IFERROR(C3+F3,"")</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H15" si="2">IFERROR(ROUNDDOWN(D3*E3,0),"")</f>
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I15" si="3">IFERROR(ROUNDDOWN(D3+H3,0),"")</f>
-        <v>0</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1505,7 +1523,7 @@
       </c>
       <c r="B17">
         <f>SUM(D$2:D$14)</f>
-        <v>0</v>
+        <v>9700</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -1514,7 +1532,7 @@
       </c>
       <c r="B18">
         <f>SUM(F$2:F$15)</f>
-        <v>0</v>
+        <v>970</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1522,8 +1540,8 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <f>IFERROR(B18-B17,"")</f>
-        <v>0</v>
+        <f>IFERROR(B17*11%,"")</f>
+        <v>1067</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1532,7 +1550,7 @@
       </c>
       <c r="B20">
         <f>B17+B19</f>
-        <v>0</v>
+        <v>10767</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -1551,7 +1569,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1594,62 +1612,62 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="str">
+      <c r="B2">
+        <v>720</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
         <f>IFERROR(B2*C2,"")</f>
-        <v/>
-      </c>
-      <c r="E2" s="5" t="str">
+        <v>7200</v>
+      </c>
+      <c r="E2" s="5">
         <f>IFERROR(D2/SUM(D$2:D$15),"")</f>
-        <v/>
-      </c>
-      <c r="F2" s="4" t="str">
+        <v>0.74226804123711343</v>
+      </c>
+      <c r="F2" s="4">
         <f t="shared" ref="F2:F15" si="0">IFERROR($B$18*E2,"")</f>
-        <v/>
-      </c>
-      <c r="G2" s="6" t="str">
+        <v>2226.8041237113403</v>
+      </c>
+      <c r="G2" s="6">
         <f>IFERROR(ROUNDDOWN(F2/B2,0),"")</f>
-        <v/>
-      </c>
-      <c r="H2" s="6" t="str">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6">
         <f>IFERROR(C2+G2,"")</f>
-        <v/>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="str">
+      <c r="B3">
+        <v>500</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
         <f t="shared" ref="D3:D15" si="1">IFERROR(B3*C3,"")</f>
-        <v/>
-      </c>
-      <c r="E3" s="5" t="str">
+        <v>2500</v>
+      </c>
+      <c r="E3" s="5">
         <f t="shared" ref="E3:E15" si="2">IFERROR(D3/SUM(D$2:D$15),"")</f>
-        <v/>
-      </c>
-      <c r="F3" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G3" s="6" t="str">
+        <v>0.25773195876288657</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="0"/>
+        <v>773.19587628865975</v>
+      </c>
+      <c r="G3" s="6">
         <f t="shared" ref="G3:G15" si="3">IFERROR(ROUNDDOWN(F3/B3,0),"")</f>
-        <v/>
-      </c>
-      <c r="H3" s="6" t="str">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
         <f t="shared" ref="H3:H15" si="4">IFERROR(C3+G3,"")</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1660,13 +1678,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E4" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E4" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G4" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1682,13 +1700,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E5" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E5" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G5" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1704,13 +1722,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E6" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E6" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G6" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1726,13 +1744,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E7" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E7" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G7" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1748,13 +1766,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E8" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E8" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G8" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1770,13 +1788,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E9" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G9" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1792,13 +1810,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E10" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G10" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1814,13 +1832,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E11" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G11" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1836,13 +1854,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E12" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G12" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1858,13 +1876,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E13" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E13" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G13" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1880,13 +1898,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E14" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E14" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G14" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1902,13 +1920,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="E15" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G15" s="6" t="str">
         <f t="shared" si="3"/>
@@ -1925,15 +1943,15 @@
       </c>
       <c r="B17">
         <f>SUM(D$2:D$15)</f>
-        <v>0</v>
+        <v>9700</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
-        <v>25</v>
+      <c r="B18">
+        <v>3000</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -1942,7 +1960,7 @@
       </c>
       <c r="B19">
         <f>IFERROR(ROUNDDOWN(B17*11%,0),"")</f>
-        <v>0</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -1951,7 +1969,7 @@
       </c>
       <c r="B20">
         <f>IFERROR(B17+B19,"")</f>
-        <v>0</v>
+        <v>10767</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">

--- a/Simulasi/Simulasi Hitung Top Up Using Coupon.xlsx
+++ b/Simulasi/Simulasi Hitung Top Up Using Coupon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KIP'\Katalon Test\EENDIGOProject\Simulasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C048BBD6-1F01-4BE1-BFB1-EC8277905B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C0E374-7E2B-43BF-B111-2B807A6380A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TopUp Disc Percent" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="26">
   <si>
     <t>Service</t>
   </si>
@@ -457,7 +457,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -504,68 +504,68 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="str">
+      <c r="B2">
+        <v>501</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
         <f>IFERROR(B2*C2,"")</f>
-        <v/>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="str">
-        <f xml:space="preserve"> IFERROR(ROUNDDOWN(D2*E2/100,0),"")</f>
-        <v/>
-      </c>
-      <c r="G2" t="str">
+        <v>2505</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <f xml:space="preserve"> IFERROR(D2*E2/100,"")</f>
+        <v>501</v>
+      </c>
+      <c r="G2">
         <f>IFERROR(D2-F2,"")</f>
-        <v/>
-      </c>
-      <c r="H2" t="str">
-        <f>IFERROR(ROUNDDOWN(G2*11%, 0),"")</f>
-        <v/>
-      </c>
-      <c r="I2" t="str">
-        <f>IFERROR(ROUNDDOWN(G2+H2,0),"")</f>
-        <v/>
+        <v>2004</v>
+      </c>
+      <c r="H2">
+        <f>IFERROR(G2*11%,"")</f>
+        <v>220.44</v>
+      </c>
+      <c r="I2">
+        <f>IFERROR(G2+H2,"")</f>
+        <v>2224.44</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="str">
+      <c r="B3">
+        <v>720</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
         <f t="shared" ref="D3:D15" si="0">IFERROR(B3*C3,"")</f>
-        <v/>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" ref="F3:F15" si="1" xml:space="preserve"> IFERROR(ROUNDDOWN(D3*E3/100,0),"")</f>
-        <v/>
-      </c>
-      <c r="G3" t="str">
+        <v>7200</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F15" si="1" xml:space="preserve"> IFERROR(D3*E3/100,"")</f>
+        <v>1440</v>
+      </c>
+      <c r="G3">
         <f t="shared" ref="G3:G15" si="2">IFERROR(D3-F3,"")</f>
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H15" si="3">IFERROR(ROUNDDOWN(G3*11%, 0),"")</f>
-        <v/>
-      </c>
-      <c r="I3" t="str">
-        <f>IFERROR(ROUNDDOWN(G3+H3,0),"")</f>
-        <v/>
+        <v>5760</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H15" si="3">IFERROR(G3*11%,"")</f>
+        <v>633.6</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I15" si="4">IFERROR(G3+H3,"")</f>
+        <v>6393.6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -592,7 +592,7 @@
         <v/>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I15" si="4">IFERROR(ROUNDDOWN(G4+H4,0),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -876,8 +876,8 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <f>SUM(D$2:D$15)</f>
-        <v>0</v>
+        <f>IFERROR(ROUNDDOWN(SUM(D$2:D$15),0),"")</f>
+        <v>9705</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -885,8 +885,8 @@
         <v>11</v>
       </c>
       <c r="B18">
-        <f>SUM(F$2:F$15)</f>
-        <v>0</v>
+        <f>IFERROR(ROUNDDOWN(SUM(F$2:F$15),0),"")</f>
+        <v>1941</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -894,8 +894,8 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <f>SUM(H$2:H$15)</f>
-        <v>0</v>
+        <f>IFERROR(ROUNDDOWN(SUM($H$2:$H$15),0),"")</f>
+        <v>854</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -903,8 +903,8 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <f>SUM(I$2:I$15)</f>
-        <v>0</v>
+        <f>IFERROR(ROUNDDOWN(SUM($B$17+$B$19),0),"")</f>
+        <v>10559</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -916,9 +916,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="E2:E3" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -926,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1060,7 +1057,7 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <f>SUM($D$2:$D$15)</f>
+        <f>IFERROR(ROUNDDOWN(SUM($D$2:$D$15),0),"")</f>
         <v>9507</v>
       </c>
     </row>
@@ -1114,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1164,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <f>IFERROR(ROUNDDOWN(D2*E2/100,0), "")</f>
+        <f>IFERROR(D2*E2/100, "")</f>
         <v>0</v>
       </c>
       <c r="G2">
@@ -1172,11 +1169,11 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f>IFERROR(ROUNDDOWN(D2*E2,0),"")</f>
+        <f>IFERROR(D2*E2,"")</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <f>IFERROR(ROUNDDOWN(D2+H2,0),"")</f>
+        <f>IFERROR(D2+H2,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1186,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <f>IFERROR(ROUNDDOWN(D3*E3/100,0), "")</f>
+        <f t="shared" ref="F3:F15" si="1">IFERROR(D3*E3/100, "")</f>
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G15" si="1">IFERROR(C3+F3,"")</f>
+        <f t="shared" ref="G3:G15" si="2">IFERROR(C3+F3,"")</f>
         <v>0</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H15" si="2">IFERROR(ROUNDDOWN(D3*E3,0),"")</f>
+        <f t="shared" ref="H3:H15" si="3">IFERROR(D3*E3,"")</f>
         <v>0</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I15" si="3">IFERROR(ROUNDDOWN(D3+H3,0),"")</f>
+        <f t="shared" ref="I3:I15" si="4">IFERROR(D3+H3,"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1211,19 +1208,19 @@
         <v>23</v>
       </c>
       <c r="F4" t="str">
-        <f>IFERROR(ROUNDDOWN(D4*E4/100,0), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1236,19 +1233,19 @@
         <v>23</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" ref="F5:F15" si="4">IFERROR(ROUNDDOWN(D5*E5/100,0), "")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1261,19 +1258,19 @@
         <v>23</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1286,19 +1283,19 @@
         <v>23</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1311,19 +1308,19 @@
         <v>23</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1336,19 +1333,19 @@
         <v>23</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1361,19 +1358,19 @@
         <v>23</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1386,19 +1383,19 @@
         <v>23</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1411,19 +1408,19 @@
         <v>23</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1436,19 +1433,19 @@
         <v>23</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1461,19 +1458,19 @@
         <v>23</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1483,19 +1480,19 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1504,7 +1501,7 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <f>SUM(D$2:D$14)</f>
+        <f>IFERROR(ROUNDDOWN(SUM(D$2:D$14),0),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1513,7 +1510,7 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <f>SUM(F$2:F$15)</f>
+        <f>IFERROR(ROUNDDOWN(SUM(F$2:F$15),0),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1522,7 +1519,7 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <f>IFERROR(B18-B17,"")</f>
+        <f>IFERROR(ROUNDDOWN(B17*11%,0),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1531,7 +1528,7 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <f>B17+B19</f>
+        <f>IFERROR(ROUNDDOWN(SUM($B$17+$B$19),0),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1550,7 +1547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -1613,7 +1610,7 @@
         <v/>
       </c>
       <c r="G2" s="6" t="str">
-        <f>IFERROR(ROUNDDOWN(F2/B2,0),"")</f>
+        <f>IFERROR(F2/B2,"")</f>
         <v/>
       </c>
       <c r="H2" s="6" t="str">
@@ -1644,7 +1641,7 @@
         <v/>
       </c>
       <c r="G3" s="6" t="str">
-        <f t="shared" ref="G3:G15" si="3">IFERROR(ROUNDDOWN(F3/B3,0),"")</f>
+        <f t="shared" ref="G3:G15" si="3">IFERROR(F3/B3,"")</f>
         <v/>
       </c>
       <c r="H3" s="6" t="str">
@@ -1924,7 +1921,7 @@
         <v>13</v>
       </c>
       <c r="B17">
-        <f>SUM(D$2:D$15)</f>
+        <f>IFERROR(ROUNDDOWN(SUM(D$2:D$15),0),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -1950,7 +1947,7 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <f>IFERROR(B17+B19,"")</f>
+        <f>IFERROR(ROUNDDOWN(B17+B19,0),"")</f>
         <v>0</v>
       </c>
     </row>

--- a/Simulasi/Simulasi Hitung Top Up Using Coupon.xlsx
+++ b/Simulasi/Simulasi Hitung Top Up Using Coupon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KIP'\Katalon Test\EENDIGOProject\Simulasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C0E374-7E2B-43BF-B111-2B807A6380A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B3B521-4657-4BD0-AD6E-7E71BE51242A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TopUp Disc Percent" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="25">
   <si>
     <t>Service</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>Grand Total Cashback</t>
-  </si>
-  <si>
-    <t>3000</t>
   </si>
 </sst>
 </file>
@@ -456,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -504,68 +501,68 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2">
-        <v>501</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="str">
         <f>IFERROR(B2*C2,"")</f>
-        <v>2505</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2">
+        <v/>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="str">
         <f xml:space="preserve"> IFERROR(D2*E2/100,"")</f>
-        <v>501</v>
-      </c>
-      <c r="G2">
+        <v/>
+      </c>
+      <c r="G2" t="str">
         <f>IFERROR(D2-F2,"")</f>
-        <v>2004</v>
-      </c>
-      <c r="H2">
+        <v/>
+      </c>
+      <c r="H2" t="str">
         <f>IFERROR(G2*11%,"")</f>
-        <v>220.44</v>
-      </c>
-      <c r="I2">
+        <v/>
+      </c>
+      <c r="I2" t="str">
         <f>IFERROR(G2+H2,"")</f>
-        <v>2224.44</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3">
-        <v>720</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="str">
         <f t="shared" ref="D3:D15" si="0">IFERROR(B3*C3,"")</f>
-        <v>7200</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
+        <v/>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="str">
         <f t="shared" ref="F3:F15" si="1" xml:space="preserve"> IFERROR(D3*E3/100,"")</f>
-        <v>1440</v>
-      </c>
-      <c r="G3">
+        <v/>
+      </c>
+      <c r="G3" t="str">
         <f t="shared" ref="G3:G15" si="2">IFERROR(D3-F3,"")</f>
-        <v>5760</v>
-      </c>
-      <c r="H3">
+        <v/>
+      </c>
+      <c r="H3" t="str">
         <f t="shared" ref="H3:H15" si="3">IFERROR(G3*11%,"")</f>
-        <v>633.6</v>
-      </c>
-      <c r="I3">
+        <v/>
+      </c>
+      <c r="I3" t="str">
         <f t="shared" ref="I3:I15" si="4">IFERROR(G3+H3,"")</f>
-        <v>6393.6</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -877,7 +874,7 @@
       </c>
       <c r="B17">
         <f>IFERROR(ROUNDDOWN(SUM(D$2:D$15),0),"")</f>
-        <v>9705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -886,7 +883,7 @@
       </c>
       <c r="B18">
         <f>IFERROR(ROUNDDOWN(SUM(F$2:F$15),0),"")</f>
-        <v>1941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -895,7 +892,7 @@
       </c>
       <c r="B19">
         <f>IFERROR(ROUNDDOWN(SUM($H$2:$H$15),0),"")</f>
-        <v>854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -903,8 +900,8 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <f>IFERROR(ROUNDDOWN(SUM($B$17+$B$19),0),"")</f>
-        <v>10559</v>
+        <f>IFERROR(ROUNDDOWN(SUM($B$17-$B$18+$B$19),0),"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -951,30 +948,30 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2">
-        <v>500</v>
-      </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="str">
         <f>IFERROR(B2*C2,"")</f>
-        <v>6000</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3">
-        <v>501</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="str">
         <f t="shared" ref="D3:D15" si="0">IFERROR(B3*C3,"")</f>
-        <v>3507</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1058,42 +1055,42 @@
       </c>
       <c r="B17">
         <f>IFERROR(ROUNDDOWN(SUM($D$2:$D$15),0),"")</f>
-        <v>9507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B18">
-        <v>5000</v>
+      <c r="B18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="str">
         <f>IFERROR(ROUNDDOWN(B21*11%,0),"")</f>
-        <v>495</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="str">
         <f>IFERROR(ROUNDDOWN(B19+B21,0),"")</f>
-        <v>5002</v>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="str">
         <f>IFERROR(ROUNDDOWN(B17-B18,0),"")</f>
-        <v>4507</v>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1156,47 +1153,71 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="str">
         <f>IFERROR(B2*C2,"")</f>
-        <v>0</v>
-      </c>
-      <c r="F2">
+        <v/>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="str">
         <f>IFERROR(D2*E2/100, "")</f>
-        <v>0</v>
-      </c>
-      <c r="G2">
+        <v/>
+      </c>
+      <c r="G2" t="str">
         <f>IFERROR(C2+F2,"")</f>
-        <v>0</v>
-      </c>
-      <c r="H2">
+        <v/>
+      </c>
+      <c r="H2" t="str">
         <f>IFERROR(D2*E2,"")</f>
-        <v>0</v>
-      </c>
-      <c r="I2">
+        <v/>
+      </c>
+      <c r="I2" t="str">
         <f>IFERROR(D2+H2,"")</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="str">
         <f t="shared" ref="D3:D15" si="0">IFERROR(B3*C3,"")</f>
-        <v>0</v>
-      </c>
-      <c r="F3">
+        <v/>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="str">
         <f t="shared" ref="F3:F15" si="1">IFERROR(D3*E3/100, "")</f>
-        <v>0</v>
-      </c>
-      <c r="G3">
+        <v/>
+      </c>
+      <c r="G3" t="str">
         <f t="shared" ref="G3:G15" si="2">IFERROR(C3+F3,"")</f>
-        <v>0</v>
-      </c>
-      <c r="H3">
+        <v/>
+      </c>
+      <c r="H3" t="str">
         <f t="shared" ref="H3:H15" si="3">IFERROR(D3*E3,"")</f>
-        <v>0</v>
-      </c>
-      <c r="I3">
+        <v/>
+      </c>
+      <c r="I3" t="str">
         <f t="shared" ref="I3:I15" si="4">IFERROR(D3+H3,"")</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -1547,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1930,7 +1951,7 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">

--- a/Simulasi/Simulasi Hitung Top Up Using Coupon.xlsx
+++ b/Simulasi/Simulasi Hitung Top Up Using Coupon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KIP'\Katalon Test\EENDIGOProject\Simulasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B3B521-4657-4BD0-AD6E-7E71BE51242A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC5B8CE-00A8-4EEB-8C6B-6D217140CD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Simulasi/Simulasi Hitung Top Up Using Coupon.xlsx
+++ b/Simulasi/Simulasi Hitung Top Up Using Coupon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KIP'\Katalon Test\EENDIGOProject\Simulasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{A9265993-EAF5-4361-9046-10035A6B241C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{6A8E376A-C859-4CD8-9F58-A548CF0FC4AB}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-110"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="32">
   <si>
     <t>Service</t>
   </si>
@@ -1622,13 +1622,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <f>IFERROR(B2*C2,"")</f>
@@ -1653,13 +1653,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <f ref="D3:D15" si="1" t="shared">IFERROR(B3*C3,"")</f>
@@ -1963,7 +1963,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2">
